--- a/server4/pre_info.xlsx
+++ b/server4/pre_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="pp_info" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">pp_info!$A$1:$K$41</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">pp_info!$A$1:$K$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -64,7 +65,7 @@
     <t xml:space="preserve">pp_sr_acc_field_work</t>
   </si>
   <si>
-    <t xml:space="preserve">pp_target_volume_realization_by_sr</t>
+    <t xml:space="preserve">pp_target_revenue_realization_by_sr</t>
   </si>
   <si>
     <t xml:space="preserve">小宋</t>
@@ -500,6 +501,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -507,72 +512,72 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5463917525773"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.4587628865979"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.7319587628866"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.1855670103093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="23.0463917525773"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.3247422680412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.5927835051546"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.0515463917526"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.9123711340206"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.4587628865979"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.819587628866"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.3247422680412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.1855670103093"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.3659793814433"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.7319587628866"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.5927835051546"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="45.0051546391753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.7783505154639"/>
-    <col collapsed="false" hidden="false" max="256" min="15" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.4587628865979"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.8711340206186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.639175257732"/>
+    <col collapsed="false" hidden="false" max="256" min="15" style="0" width="8.31958762886598"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="0" width="12.5463917525773"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="32.4587628865979"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="29.7319587628866"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="29.1855670103093"/>
-    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="23.0463917525773"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="0" width="32.3247422680412"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="0" width="29.5927835051546"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="0" width="29.0515463917526"/>
+    <col collapsed="false" hidden="false" max="261" min="261" style="0" width="22.9123711340206"/>
     <col collapsed="false" hidden="false" max="262" min="262" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="263" min="263" style="0" width="26.4587628865979"/>
     <col collapsed="false" hidden="false" max="264" min="264" style="0" width="21.819587628866"/>
-    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="29.3247422680412"/>
+    <col collapsed="false" hidden="false" max="265" min="265" style="0" width="29.1855670103093"/>
     <col collapsed="false" hidden="false" max="266" min="266" style="0" width="31.3659793814433"/>
-    <col collapsed="false" hidden="false" max="267" min="267" style="0" width="26.7319587628866"/>
-    <col collapsed="false" hidden="false" max="268" min="268" style="0" width="23.5927835051546"/>
-    <col collapsed="false" hidden="false" max="269" min="269" style="0" width="45.0051546391753"/>
-    <col collapsed="false" hidden="false" max="270" min="270" style="0" width="25.7783505154639"/>
-    <col collapsed="false" hidden="false" max="512" min="271" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="267" min="267" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="268" min="268" style="0" width="23.4587628865979"/>
+    <col collapsed="false" hidden="false" max="269" min="269" style="0" width="44.8711340206186"/>
+    <col collapsed="false" hidden="false" max="270" min="270" style="0" width="25.639175257732"/>
+    <col collapsed="false" hidden="false" max="512" min="271" style="0" width="8.31958762886598"/>
     <col collapsed="false" hidden="false" max="513" min="513" style="0" width="12.5463917525773"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="32.4587628865979"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="29.7319587628866"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="29.1855670103093"/>
-    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="23.0463917525773"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="0" width="32.3247422680412"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="0" width="29.5927835051546"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="0" width="29.0515463917526"/>
+    <col collapsed="false" hidden="false" max="517" min="517" style="0" width="22.9123711340206"/>
     <col collapsed="false" hidden="false" max="518" min="518" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="519" min="519" style="0" width="26.4587628865979"/>
     <col collapsed="false" hidden="false" max="520" min="520" style="0" width="21.819587628866"/>
-    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="29.3247422680412"/>
+    <col collapsed="false" hidden="false" max="521" min="521" style="0" width="29.1855670103093"/>
     <col collapsed="false" hidden="false" max="522" min="522" style="0" width="31.3659793814433"/>
-    <col collapsed="false" hidden="false" max="523" min="523" style="0" width="26.7319587628866"/>
-    <col collapsed="false" hidden="false" max="524" min="524" style="0" width="23.5927835051546"/>
-    <col collapsed="false" hidden="false" max="525" min="525" style="0" width="45.0051546391753"/>
-    <col collapsed="false" hidden="false" max="526" min="526" style="0" width="25.7783505154639"/>
-    <col collapsed="false" hidden="false" max="768" min="527" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="523" min="523" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="524" min="524" style="0" width="23.4587628865979"/>
+    <col collapsed="false" hidden="false" max="525" min="525" style="0" width="44.8711340206186"/>
+    <col collapsed="false" hidden="false" max="526" min="526" style="0" width="25.639175257732"/>
+    <col collapsed="false" hidden="false" max="768" min="527" style="0" width="8.31958762886598"/>
     <col collapsed="false" hidden="false" max="769" min="769" style="0" width="12.5463917525773"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="32.4587628865979"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="29.7319587628866"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="29.1855670103093"/>
-    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="23.0463917525773"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="0" width="32.3247422680412"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="0" width="29.5927835051546"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="0" width="29.0515463917526"/>
+    <col collapsed="false" hidden="false" max="773" min="773" style="0" width="22.9123711340206"/>
     <col collapsed="false" hidden="false" max="774" min="774" style="0" width="27.9587628865979"/>
-    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="775" min="775" style="0" width="26.4587628865979"/>
     <col collapsed="false" hidden="false" max="776" min="776" style="0" width="21.819587628866"/>
-    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="29.3247422680412"/>
+    <col collapsed="false" hidden="false" max="777" min="777" style="0" width="29.1855670103093"/>
     <col collapsed="false" hidden="false" max="778" min="778" style="0" width="31.3659793814433"/>
-    <col collapsed="false" hidden="false" max="779" min="779" style="0" width="26.7319587628866"/>
-    <col collapsed="false" hidden="false" max="780" min="780" style="0" width="23.5927835051546"/>
-    <col collapsed="false" hidden="false" max="781" min="781" style="0" width="45.0051546391753"/>
-    <col collapsed="false" hidden="false" max="782" min="782" style="0" width="25.7783505154639"/>
-    <col collapsed="false" hidden="false" max="1025" min="783" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="779" min="779" style="0" width="26.5927835051546"/>
+    <col collapsed="false" hidden="false" max="780" min="780" style="0" width="23.4587628865979"/>
+    <col collapsed="false" hidden="false" max="781" min="781" style="0" width="44.8711340206186"/>
+    <col collapsed="false" hidden="false" max="782" min="782" style="0" width="25.639175257732"/>
+    <col collapsed="false" hidden="false" max="1025" min="783" style="0" width="8.31958762886598"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,20 +844,20 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1855670103093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3659793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.0463917525773"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.819587628866"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5927835051546"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4587628865979"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.5051546391753"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9123711340206"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7731958762887"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.31958762886598"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,7 +1008,7 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1011,14 +1016,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.0927835051546"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6855670103093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.319587628866"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.639175257732"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1855670103093"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.5"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="6" width="16.3659793814433"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="14.319587628866"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="14.1855670103093"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="6" width="13.3659793814433"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.31958762886598"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.0927835051546"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.31958762886598"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2451,29 +2456,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="1:41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="17" width="12.9587628865979"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="10.7731958762887"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="17" width="10.639175257732"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="18" width="19.2319587628866"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="18" width="19.0927835051546"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="18" width="15.819587628866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="14.4587628865979"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="18" width="13.9123711340206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="18" width="17.1855670103093"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="18" width="13.7731958762887"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="18" width="17.0463917525773"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="18" width="21.5463917525773"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="18" width="18.9587628865979"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="18" width="22.3659793814433"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.31958762886598"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2510,8 +2514,10 @@
       <c r="K1" s="20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
@@ -2528,11 +2534,11 @@
         <v>52.7280062228843</v>
       </c>
       <c r="F2" s="18" t="n">
-        <v>2030013.92081469</v>
+        <v>2030014</v>
       </c>
       <c r="G2" s="18" t="n">
-        <f aca="false">F2/89</f>
-        <v>22809.1451776931</v>
+        <f aca="false">ROUND(F2/89,0)</f>
+        <v>22809</v>
       </c>
       <c r="H2" s="18" t="n">
         <v>57.9309416872027</v>
@@ -2547,7 +2553,7 @@
         <v>54.9769770461633</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="n">
         <v>1</v>
       </c>
@@ -2564,11 +2570,11 @@
         <v>44.7</v>
       </c>
       <c r="F3" s="18" t="n">
-        <v>228552.34705931</v>
+        <v>228552</v>
       </c>
       <c r="G3" s="18" t="n">
-        <f aca="false">pp_info!F3/65</f>
-        <v>3516.18995475862</v>
+        <f aca="false">ROUND(F3/65,0)</f>
+        <v>3516</v>
       </c>
       <c r="H3" s="18" t="n">
         <v>55.8439976343764</v>
@@ -2583,7 +2589,7 @@
         <v>57.0576259620459</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="n">
         <v>1</v>
       </c>
@@ -2600,11 +2606,11 @@
         <v>87.5043017105834</v>
       </c>
       <c r="F4" s="18" t="n">
-        <v>408288.059953083</v>
+        <v>408288</v>
       </c>
       <c r="G4" s="18" t="n">
-        <f aca="false">F4/95</f>
-        <v>4297.76905213772</v>
+        <f aca="false">ROUND(F4/95,0)</f>
+        <v>4298</v>
       </c>
       <c r="H4" s="18" t="n">
         <v>83.7728902960396</v>
@@ -2619,7 +2625,7 @@
         <v>83.2402453313342</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="n">
         <v>1</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="18" t="n">
-        <f aca="false">F5/55</f>
+        <f aca="false">ROUND(F5/55,0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="18" t="n">
@@ -2655,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="n">
         <v>2</v>
       </c>
@@ -2672,11 +2678,11 @@
         <v>60.843324587259</v>
       </c>
       <c r="F6" s="18" t="n">
-        <v>523476.395821796</v>
+        <v>523476</v>
       </c>
       <c r="G6" s="18" t="n">
-        <f aca="false">F6/89</f>
-        <v>5881.75725642468</v>
+        <f aca="false">ROUND(F6/89,0)</f>
+        <v>5882</v>
       </c>
       <c r="H6" s="18" t="n">
         <v>65</v>
@@ -2691,7 +2697,7 @@
         <v>55.0970603687945</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="n">
         <v>2</v>
       </c>
@@ -2708,11 +2714,11 @@
         <v>92.8008182202295</v>
       </c>
       <c r="F7" s="18" t="n">
-        <v>227482.419020992</v>
+        <v>227482</v>
       </c>
       <c r="G7" s="18" t="n">
-        <f aca="false">pp_info!F7/65</f>
-        <v>3499.72952339988</v>
+        <f aca="false">ROUND(F7/65,0)</f>
+        <v>3500</v>
       </c>
       <c r="H7" s="18" t="n">
         <v>91.3074331636033</v>
@@ -2727,7 +2733,7 @@
         <v>85.3723047447715</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="n">
         <v>2</v>
       </c>
@@ -2744,11 +2750,11 @@
         <v>90.2546913409358</v>
       </c>
       <c r="F8" s="18" t="n">
-        <v>640756.138229096</v>
+        <v>640756</v>
       </c>
       <c r="G8" s="18" t="n">
-        <f aca="false">F8/95</f>
-        <v>6744.80145504311</v>
+        <f aca="false">ROUND(F8/95,0)</f>
+        <v>6745</v>
       </c>
       <c r="H8" s="18" t="n">
         <v>88.5419763404316</v>
@@ -2763,7 +2769,7 @@
         <v>88.017317069593</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="n">
         <v>2</v>
       </c>
@@ -2780,11 +2786,11 @@
         <v>35.6585048206243</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>15980.5422308832</v>
+        <v>15981</v>
       </c>
       <c r="G9" s="18" t="n">
-        <f aca="false">F9/55</f>
-        <v>290.555313288786</v>
+        <f aca="false">ROUND(F9/55,0)</f>
+        <v>291</v>
       </c>
       <c r="H9" s="18" t="n">
         <v>30.4706382803338</v>
@@ -2799,7 +2805,7 @@
         <v>46.5084483973868</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="n">
         <v>3</v>
       </c>
@@ -2816,11 +2822,11 @@
         <v>69.4692704249757</v>
       </c>
       <c r="F10" s="18" t="n">
-        <v>1105593.26746028</v>
+        <v>1105593</v>
       </c>
       <c r="G10" s="18" t="n">
-        <f aca="false">F10/89</f>
-        <v>12422.3962635986</v>
+        <f aca="false">ROUND(F10/89,0)</f>
+        <v>12422</v>
       </c>
       <c r="H10" s="18" t="n">
         <v>41.0405110633683</v>
@@ -2835,7 +2841,7 @@
         <v>39.7902270492752</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="n">
         <v>3</v>
       </c>
@@ -2852,11 +2858,11 @@
         <v>17.5083119770889</v>
       </c>
       <c r="F11" s="18" t="n">
-        <v>128228.343233498</v>
+        <v>128228</v>
       </c>
       <c r="G11" s="18" t="n">
-        <f aca="false">pp_info!F11/65</f>
-        <v>1972.74374205381</v>
+        <f aca="false">ROUND(F11/65,0)</f>
+        <v>1973</v>
       </c>
       <c r="H11" s="18" t="n">
         <v>32.552805060829</v>
@@ -2871,7 +2877,7 @@
         <v>88.2569565535612</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="n">
         <v>3</v>
       </c>
@@ -2888,11 +2894,11 @@
         <v>40.2352921559209</v>
       </c>
       <c r="F12" s="18" t="n">
-        <v>39049.4212140886</v>
+        <v>39049</v>
       </c>
       <c r="G12" s="18" t="n">
-        <f aca="false">F12/95</f>
-        <v>411.046539095669</v>
+        <f aca="false">ROUND(F12/95,0)</f>
+        <v>411</v>
       </c>
       <c r="H12" s="18" t="n">
         <v>38.2406388438316</v>
@@ -2907,7 +2913,7 @@
         <v>41.056032193973</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
@@ -2924,11 +2930,11 @@
         <v>61.1043687319552</v>
       </c>
       <c r="F13" s="18" t="n">
-        <v>116415.989323429</v>
+        <v>116416</v>
       </c>
       <c r="G13" s="18" t="n">
-        <f aca="false">F13/55</f>
-        <v>2116.65435133508</v>
+        <f aca="false">ROUND(F13/55,0)</f>
+        <v>2117</v>
       </c>
       <c r="H13" s="18" t="n">
         <v>43.0433060940674</v>
@@ -2943,7 +2949,7 @@
         <v>69.2540995004782</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
@@ -2960,11 +2966,11 @@
         <v>56.2400736965111</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>1490917.89223273</v>
+        <v>1490918</v>
       </c>
       <c r="G14" s="18" t="n">
-        <f aca="false">F14/89</f>
-        <v>16751.8864295813</v>
+        <f aca="false">ROUND(F14/89,0)</f>
+        <v>16752</v>
       </c>
       <c r="H14" s="18" t="n">
         <v>66.954974237324</v>
@@ -2979,7 +2985,7 @@
         <v>71.7451454052816</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="n">
         <v>4</v>
       </c>
@@ -2996,11 +3002,11 @@
         <v>74.0131181432239</v>
       </c>
       <c r="F15" s="18" t="n">
-        <v>95247.8782493976</v>
+        <v>95248</v>
       </c>
       <c r="G15" s="18" t="n">
-        <f aca="false">pp_info!F15/65</f>
-        <v>1465.35197306766</v>
+        <f aca="false">ROUND(F15/65,0)</f>
+        <v>1465</v>
       </c>
       <c r="H15" s="18" t="n">
         <v>64.3545244508464</v>
@@ -3015,7 +3021,7 @@
         <v>77.4131209643456</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="n">
         <v>4</v>
       </c>
@@ -3032,11 +3038,11 @@
         <v>48.1388198420539</v>
       </c>
       <c r="F16" s="18" t="n">
-        <v>127726.111005319</v>
+        <v>127726</v>
       </c>
       <c r="G16" s="18" t="n">
-        <f aca="false">F16/95</f>
-        <v>1344.48537900336</v>
+        <f aca="false">ROUND(F16/95,0)</f>
+        <v>1344</v>
       </c>
       <c r="H16" s="18" t="n">
         <v>43.3296803579885</v>
@@ -3051,7 +3057,7 @@
         <v>46.403900034673</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="n">
         <v>4</v>
       </c>
@@ -3071,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="18" t="n">
-        <f aca="false">F17/55</f>
+        <f aca="false">ROUND(F17/55,0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="18" t="n">
@@ -3087,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="n">
         <v>5</v>
       </c>
@@ -3104,11 +3110,11 @@
         <v>56.2976512388533</v>
       </c>
       <c r="F18" s="18" t="n">
-        <v>240285.966548088</v>
+        <v>240286</v>
       </c>
       <c r="G18" s="18" t="n">
-        <f aca="false">F18/89</f>
-        <v>2699.84232076504</v>
+        <f aca="false">ROUND(F18/89,0)</f>
+        <v>2700</v>
       </c>
       <c r="H18" s="18" t="n">
         <v>61.9517534537233</v>
@@ -3123,7 +3129,7 @@
         <v>72.9251229136797</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="n">
         <v>5</v>
       </c>
@@ -3140,11 +3146,11 @@
         <v>74.6916051174343</v>
       </c>
       <c r="F19" s="18" t="n">
-        <v>60650.4620782006</v>
+        <v>60650</v>
       </c>
       <c r="G19" s="18" t="n">
-        <f aca="false">pp_info!F19/65</f>
-        <v>933.084031972317</v>
+        <f aca="false">ROUND(F19/65,0)</f>
+        <v>933</v>
       </c>
       <c r="H19" s="18" t="n">
         <v>75.1285420330629</v>
@@ -3159,7 +3165,7 @@
         <v>79.6044520696601</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="n">
         <v>5</v>
       </c>
@@ -3176,11 +3182,11 @@
         <v>69.3548697670939</v>
       </c>
       <c r="F20" s="18" t="n">
-        <v>390827.494287075</v>
+        <v>390827</v>
       </c>
       <c r="G20" s="18" t="n">
-        <f aca="false">F20/95</f>
-        <v>4113.97362407448</v>
+        <f aca="false">ROUND(F20/95,0)</f>
+        <v>4114</v>
       </c>
       <c r="H20" s="18" t="n">
         <v>67.5108570324344</v>
@@ -3195,7 +3201,7 @@
         <v>69.3404348674714</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="n">
         <v>5</v>
       </c>
@@ -3212,11 +3218,11 @@
         <v>65.2119021196033</v>
       </c>
       <c r="F21" s="18" t="n">
-        <v>6866.51265519509</v>
+        <v>6867</v>
       </c>
       <c r="G21" s="18" t="n">
-        <f aca="false">F21/55</f>
-        <v>124.845684639911</v>
+        <f aca="false">ROUND(F21/55,0)</f>
+        <v>125</v>
       </c>
       <c r="H21" s="18" t="n">
         <v>66.351110801445</v>
@@ -3231,7 +3237,7 @@
         <v>62.5735700492101</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="n">
         <v>6</v>
       </c>
@@ -3248,11 +3254,11 @@
         <v>64.6252178765081</v>
       </c>
       <c r="F22" s="18" t="n">
-        <v>648947.758006488</v>
+        <v>648948</v>
       </c>
       <c r="G22" s="18" t="n">
-        <f aca="false">F22/89</f>
-        <v>7291.54784276952</v>
+        <f aca="false">ROUND(F22/89,0)</f>
+        <v>7292</v>
       </c>
       <c r="H22" s="18" t="n">
         <v>84.3674169802688</v>
@@ -3267,7 +3273,7 @@
         <v>77.6105142667517</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="n">
         <v>6</v>
       </c>
@@ -3284,11 +3290,11 @@
         <v>86.9319140790219</v>
       </c>
       <c r="F23" s="18" t="n">
-        <v>58263.2602815181</v>
+        <v>58263</v>
       </c>
       <c r="G23" s="18" t="n">
-        <f aca="false">pp_info!F23/65</f>
-        <v>896.357850484893</v>
+        <f aca="false">ROUND(F23/65,0)</f>
+        <v>896</v>
       </c>
       <c r="H23" s="18" t="n">
         <v>96.8563615963252</v>
@@ -3303,7 +3309,7 @@
         <v>92.5385027305068</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="n">
         <v>6</v>
       </c>
@@ -3320,11 +3326,11 @@
         <v>72.6775550502912</v>
       </c>
       <c r="F24" s="18" t="n">
-        <v>39393.1155630767</v>
+        <v>39393</v>
       </c>
       <c r="G24" s="18" t="n">
-        <f aca="false">F24/95</f>
-        <v>414.664374348176</v>
+        <f aca="false">ROUND(F24/95,0)</f>
+        <v>415</v>
       </c>
       <c r="H24" s="18" t="n">
         <v>67.8505204821698</v>
@@ -3339,7 +3345,7 @@
         <v>63.4739516085953</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="n">
         <v>6</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="18" t="n">
-        <f aca="false">F25/55</f>
+        <f aca="false">ROUND(F25/55,0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="18" t="n">
@@ -3375,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="n">
         <v>7</v>
       </c>
@@ -3392,11 +3398,11 @@
         <v>71.1562003708228</v>
       </c>
       <c r="F26" s="18" t="n">
-        <v>516455.556945492</v>
+        <v>516456</v>
       </c>
       <c r="G26" s="18" t="n">
-        <f aca="false">F26/89</f>
-        <v>5802.87142635385</v>
+        <f aca="false">ROUND(F26/89,0)</f>
+        <v>5803</v>
       </c>
       <c r="H26" s="18" t="n">
         <v>55.9936955986445</v>
@@ -3411,7 +3417,7 @@
         <v>64.602186123287</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="n">
         <v>7</v>
       </c>
@@ -3428,11 +3434,11 @@
         <v>66.7882276502885</v>
       </c>
       <c r="F27" s="18" t="n">
-        <v>131780.075981458</v>
+        <v>131780</v>
       </c>
       <c r="G27" s="18" t="n">
-        <f aca="false">pp_info!F27/65</f>
-        <v>2027.38578433013</v>
+        <f aca="false">ROUND(F27/65,0)</f>
+        <v>2027</v>
       </c>
       <c r="H27" s="18" t="n">
         <v>65.4995632995129</v>
@@ -3447,7 +3453,7 @@
         <v>15.6332112471843</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="n">
         <v>7</v>
       </c>
@@ -3464,11 +3470,11 @@
         <v>65.2555581875104</v>
       </c>
       <c r="F28" s="18" t="n">
-        <v>79336.5513431393</v>
+        <v>79337</v>
       </c>
       <c r="G28" s="18" t="n">
-        <f aca="false">F28/95</f>
-        <v>835.121593085677</v>
+        <f aca="false">ROUND(F28/95,0)</f>
+        <v>835</v>
       </c>
       <c r="H28" s="18" t="n">
         <v>61.2458287123977</v>
@@ -3483,7 +3489,7 @@
         <v>63.4243654665638</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="n">
         <v>7</v>
       </c>
@@ -3503,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="18" t="n">
-        <f aca="false">F29/55</f>
+        <f aca="false">ROUND(F29/55,0)</f>
         <v>0</v>
       </c>
       <c r="H29" s="18" t="n">
@@ -3519,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="n">
         <v>8</v>
       </c>
@@ -3536,11 +3542,11 @@
         <v>57.7684722608889</v>
       </c>
       <c r="F30" s="18" t="n">
-        <v>192669.233830086</v>
+        <v>192669</v>
       </c>
       <c r="G30" s="18" t="n">
-        <f aca="false">F30/89</f>
-        <v>2164.82285202344</v>
+        <f aca="false">ROUND(F30/89,0)</f>
+        <v>2165</v>
       </c>
       <c r="H30" s="18" t="n">
         <v>27.1400377481731</v>
@@ -3555,7 +3561,7 @@
         <v>77.304549130026</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="n">
         <v>8</v>
       </c>
@@ -3572,11 +3578,11 @@
         <v>93.2190964326646</v>
       </c>
       <c r="F31" s="18" t="n">
-        <v>48472.5584040664</v>
+        <v>48473</v>
       </c>
       <c r="G31" s="18" t="n">
-        <f aca="false">pp_info!F31/65</f>
-        <v>745.731667754867</v>
+        <f aca="false">ROUND(F31/65,0)</f>
+        <v>746</v>
       </c>
       <c r="H31" s="18" t="n">
         <v>92.850448365437</v>
@@ -3591,7 +3597,7 @@
         <v>93.8602391373594</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="n">
         <v>8</v>
       </c>
@@ -3608,11 +3614,11 @@
         <v>69.1220411078694</v>
       </c>
       <c r="F32" s="18" t="n">
-        <v>45002.8911839842</v>
+        <v>45003</v>
       </c>
       <c r="G32" s="18" t="n">
-        <f aca="false">F32/95</f>
-        <v>473.714644041939</v>
+        <f aca="false">ROUND(F32/95,0)</f>
+        <v>474</v>
       </c>
       <c r="H32" s="18" t="n">
         <v>69.1675347518178</v>
@@ -3627,7 +3633,7 @@
         <v>70.0364426303071</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="n">
         <v>8</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="18" t="n">
-        <f aca="false">F33/55</f>
+        <f aca="false">ROUND(F33/55,0)</f>
         <v>0</v>
       </c>
       <c r="H33" s="18" t="n">
@@ -3663,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="n">
         <v>9</v>
       </c>
@@ -3680,11 +3686,11 @@
         <v>85.3915318180318</v>
       </c>
       <c r="F34" s="18" t="n">
-        <v>78447.1382873943</v>
+        <v>78447</v>
       </c>
       <c r="G34" s="18" t="n">
-        <f aca="false">F34/89</f>
-        <v>881.428520083082</v>
+        <f aca="false">ROUND(F34/89,0)</f>
+        <v>881</v>
       </c>
       <c r="H34" s="18" t="n">
         <v>75.5908518474076</v>
@@ -3699,7 +3705,7 @@
         <v>80.503670982541</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="n">
         <v>9</v>
       </c>
@@ -3716,11 +3722,11 @@
         <v>87.4295200197593</v>
       </c>
       <c r="F35" s="18" t="n">
-        <v>31710.0809934366</v>
+        <v>31710</v>
       </c>
       <c r="G35" s="18" t="n">
-        <f aca="false">pp_info!F35/65</f>
-        <v>487.847399899025</v>
+        <f aca="false">ROUND(F35/65,0)</f>
+        <v>488</v>
       </c>
       <c r="H35" s="18" t="n">
         <v>92.0439277514082</v>
@@ -3735,7 +3741,7 @@
         <v>97.7408155925631</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="n">
         <v>9</v>
       </c>
@@ -3752,11 +3758,11 @@
         <v>67.7422896915539</v>
       </c>
       <c r="F36" s="18" t="n">
-        <v>20497.5440955475</v>
+        <v>20498</v>
       </c>
       <c r="G36" s="18" t="n">
-        <f aca="false">F36/95</f>
-        <v>215.763622058395</v>
+        <f aca="false">ROUND(F36/95,0)</f>
+        <v>216</v>
       </c>
       <c r="H36" s="18" t="n">
         <v>73.333189645701</v>
@@ -3771,7 +3777,7 @@
         <v>64.3940067626391</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="n">
         <v>9</v>
       </c>
@@ -3791,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="18" t="n">
-        <f aca="false">F37/55</f>
+        <f aca="false">ROUND(F37/55,0)</f>
         <v>0</v>
       </c>
       <c r="H37" s="18" t="n">
@@ -3807,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="n">
         <v>10</v>
       </c>
@@ -3824,11 +3830,11 @@
         <v>51.288012491386</v>
       </c>
       <c r="F38" s="18" t="n">
-        <v>1886960.25401124</v>
+        <v>1886960</v>
       </c>
       <c r="G38" s="18" t="n">
-        <f aca="false">F38/89</f>
-        <v>21201.8006068678</v>
+        <f aca="false">ROUND(F38/89,0)</f>
+        <v>21202</v>
       </c>
       <c r="H38" s="18" t="n">
         <v>48.3674467582608</v>
@@ -3843,7 +3849,7 @@
         <v>56.2122632373891</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="n">
         <v>10</v>
       </c>
@@ -3860,11 +3866,11 @@
         <v>63.8783879796969</v>
       </c>
       <c r="F39" s="18" t="n">
-        <v>247976.174558313</v>
+        <v>247976</v>
       </c>
       <c r="G39" s="18" t="n">
-        <f aca="false">pp_info!F39/65</f>
-        <v>3815.0180701279</v>
+        <f aca="false">ROUND(F39/65,0)</f>
+        <v>3815</v>
       </c>
       <c r="H39" s="18" t="n">
         <v>56.1350719490636</v>
@@ -3879,7 +3885,7 @@
         <v>63.1584404706746</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="n">
         <v>10</v>
       </c>
@@ -3896,11 +3902,11 @@
         <v>87.3218881823088</v>
       </c>
       <c r="F40" s="18" t="n">
-        <v>318311.102127056</v>
+        <v>318311</v>
       </c>
       <c r="G40" s="18" t="n">
-        <f aca="false">F40/95</f>
-        <v>3350.6431802848</v>
+        <f aca="false">ROUND(F40/95,0)</f>
+        <v>3351</v>
       </c>
       <c r="H40" s="18" t="n">
         <v>72.3045130127303</v>
@@ -3915,7 +3921,7 @@
         <v>78.5587849092775</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="n">
         <v>10</v>
       </c>
@@ -3932,11 +3938,11 @@
         <v>89.581282647832</v>
       </c>
       <c r="F41" s="18" t="n">
-        <v>54151.6981898556</v>
+        <v>54152</v>
       </c>
       <c r="G41" s="18" t="n">
-        <f aca="false">F41/55</f>
-        <v>984.576330724646</v>
+        <f aca="false">ROUND(F41/55,0)</f>
+        <v>985</v>
       </c>
       <c r="H41" s="18" t="n">
         <v>87.5025138170964</v>
@@ -3949,6 +3955,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K41">
+    <filterColumn colId="1">
+      <customFilters and="true">
+        <customFilter operator="equal" val="4"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3956,5 +3969,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>